--- a/references/Zoning_Parser_Invalids.xlsx
+++ b/references/Zoning_Parser_Invalids.xlsx
@@ -9,14 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="not_parsed" sheetId="1" r:id="rId1"/>
     <sheet name="invalid_zone" sheetId="2" r:id="rId2"/>
     <sheet name="invalid_height" sheetId="3" r:id="rId3"/>
     <sheet name="invalid_overlay" sheetId="4" r:id="rId4"/>
+    <sheet name="examples" sheetId="6" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">examples!$A$1:$C$45</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="265">
   <si>
     <t>ZONE_CMPLT</t>
   </si>
@@ -904,19 +908,27 @@
   <si>
     <t>GW</t>
   </si>
+  <si>
+    <t>ZONE_CMPLT (not parsed)</t>
+  </si>
+  <si>
+    <t>INVALID_ZONE</t>
+  </si>
+  <si>
+    <t>INVALID_STRINGS</t>
+  </si>
+  <si>
+    <t>INVALID_HEIGHT</t>
+  </si>
+  <si>
+    <t>INVALID_OVERLAY</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -933,7 +945,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -958,8 +970,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -967,14 +997,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -999,6 +1044,53 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1282,8 +1374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1459,7 +1551,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>7</v>
       </c>
@@ -1469,7 +1561,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>79</v>
       </c>
@@ -1762,17 +1854,17 @@
         <v>119</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
         <v>24</v>
       </c>
@@ -1787,7 +1879,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
         <v>27</v>
       </c>
@@ -1817,7 +1909,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
         <v>31</v>
       </c>
@@ -1837,7 +1929,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
         <v>32</v>
       </c>
@@ -1907,7 +1999,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1916,7 +2008,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2069,6 +2161,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2077,7 +2170,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="A13" activeCellId="1" sqref="A4:A6 A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2222,6 +2315,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2229,8 +2323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2588,6 +2682,307 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.42578125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" customWidth="1"/>
+    <col min="3" max="3" width="35.5703125" style="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="19"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="21"/>
+    </row>
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="B9" s="19"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="B10" s="19"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="B11" s="19"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="B12" s="19"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="B13" s="19"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="19"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="B15" s="19"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="B16" s="19"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="B17" s="19"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="B18" s="23"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="B19" s="23"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="23"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="B21" s="23"/>
+    </row>
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="23"/>
+      <c r="C22" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="23"/>
+      <c r="C23" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="23"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="23"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="23"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="23"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="23"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="23"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="23"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="23"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="23"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="23"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="23"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="23"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B36" s="23"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="B37" s="23"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="B38" s="23"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="B39" s="23"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="B40" s="23"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="B41" s="23"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>243</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/references/Zoning_Parser_Invalids.xlsx
+++ b/references/Zoning_Parser_Invalids.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="not_parsed" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="invalid_height" sheetId="3" r:id="rId3"/>
     <sheet name="invalid_overlay" sheetId="4" r:id="rId4"/>
     <sheet name="examples" sheetId="6" r:id="rId5"/>
+    <sheet name="failed" sheetId="8" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="4">examples!$A$1:$C$45</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="302">
   <si>
     <t>ZONE_CMPLT</t>
   </si>
@@ -922,6 +923,117 @@
   </si>
   <si>
     <t>INVALID_OVERLAY</t>
+  </si>
+  <si>
+    <t>zone_class</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>specific_plan</t>
+  </si>
+  <si>
+    <t>height_district</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>(WC)TOPANGA</t>
+  </si>
+  <si>
+    <t>[SN, RIO]</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>RE11</t>
+  </si>
+  <si>
+    <t>[CUGU]</t>
+  </si>
+  <si>
+    <t>[HPOZ]</t>
+  </si>
+  <si>
+    <t>[RIO]</t>
+  </si>
+  <si>
+    <t>[H]</t>
+  </si>
+  <si>
+    <t>[O, HPOZ]</t>
+  </si>
+  <si>
+    <t>1XL</t>
+  </si>
+  <si>
+    <t>(WC)COLLEGE</t>
+  </si>
+  <si>
+    <t>(WC)COMMERCE</t>
+  </si>
+  <si>
+    <t>(WC)DOWNTOWN</t>
+  </si>
+  <si>
+    <t>(WC)PARK</t>
+  </si>
+  <si>
+    <t>[SN]</t>
+  </si>
+  <si>
+    <t>(WC)NORTHVILLAGE</t>
+  </si>
+  <si>
+    <t>(WC)UPTOWN</t>
+  </si>
+  <si>
+    <t>(WC)RIVER</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>[O, CUGU]</t>
+  </si>
+  <si>
+    <t>RE15</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>[RPD]</t>
+  </si>
+  <si>
+    <t>[MU]</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>PV</t>
+  </si>
+  <si>
+    <t>[CA]</t>
+  </si>
+  <si>
+    <t>[CA, CDO]</t>
   </si>
 </sst>
 </file>
@@ -945,7 +1057,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -988,6 +1100,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1016,7 +1134,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1092,6 +1210,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2324,7 +2458,7 @@
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B3"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2690,7 +2824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -2985,4 +3119,879 @@
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.5703125" style="34" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" style="8"/>
+    <col min="4" max="4" width="10.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>290</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>290</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>290</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>290</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>290</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>290</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C10" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>290</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C11" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="C12" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>252</v>
+      </c>
+      <c r="H12" s="38" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="C13" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>253</v>
+      </c>
+      <c r="H13" s="38" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C14" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="C15" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>253</v>
+      </c>
+      <c r="H15" s="38" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C16" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C17" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="C18" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="H18" s="38" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C19" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C20" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C21" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C22" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C23" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C24" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C25" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C26" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C27" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C28" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C29" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C30" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C31" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C33" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="F33" s="35" t="s">
+        <v>290</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="C34" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="D34" s="37" t="s">
+        <v>294</v>
+      </c>
+      <c r="F34" s="37" t="s">
+        <v>291</v>
+      </c>
+      <c r="G34" s="37" t="s">
+        <v>291</v>
+      </c>
+      <c r="H34" s="37" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="B35" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C35" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C36" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B37" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="C37" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="D37" s="38" t="s">
+        <v>291</v>
+      </c>
+      <c r="E37" s="38" t="s">
+        <v>298</v>
+      </c>
+      <c r="F37" s="38" t="s">
+        <v>291</v>
+      </c>
+      <c r="G37" s="38" t="s">
+        <v>291</v>
+      </c>
+      <c r="H37" s="38" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C38" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>